--- a/Execution time.xlsx
+++ b/Execution time.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Santias\Desktop\Uni\CAB301\assignment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n9983244\Downloads\CAB301-A2-master\CAB301-A2-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DED7E84-9BDD-4113-B99D-640AE76CBA36}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12150" xr2:uid="{551A90C0-0F89-4B37-A0A7-05D303AA2F3F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,16 +29,16 @@
     <t>Size</t>
   </si>
   <si>
-    <t>Median</t>
+    <t>Median Algorithm</t>
   </si>
   <si>
-    <t>Brute</t>
+    <t>Brute Force Median Algorithm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,6 +102,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Execution time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> to Find Median in a given array</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -142,7 +172,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Brute</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force Median Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -156,6 +194,21 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$101</c:f>
@@ -163,304 +216,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>3.6733333333333301E-3</c:v>
+                  <c:v>2.5999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.108E-2</c:v>
+                  <c:v>1.2999999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9366666666666699E-3</c:v>
+                  <c:v>1.9000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.26933333333333E-2</c:v>
+                  <c:v>1.9000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9933333333333301E-3</c:v>
+                  <c:v>1.4999999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5166666666666698E-3</c:v>
+                  <c:v>2.2000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8633333333333302E-3</c:v>
+                  <c:v>2.7E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4456666666666699E-2</c:v>
+                  <c:v>3.2000000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8799999999999998E-3</c:v>
+                  <c:v>4.4000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.55366666666667E-2</c:v>
+                  <c:v>5.1000000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.6499999999999996E-3</c:v>
+                  <c:v>5.1999999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8933333333333299E-2</c:v>
+                  <c:v>4.6000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>6.8999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.9000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.7999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.6000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.14E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2199999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.39E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6299999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8600000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7799999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.99E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.49E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0699999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4599999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.64E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.96E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.62E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.62E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.11E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.6800000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5199999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.4600000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.9399999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.13E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>5.3400000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.0879999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.5799999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.2020000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.3666666666666701E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.3566666666666701E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.27633333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.4069999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.2246666666666701E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.9173333333333301E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.6266666666666704E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.5173333333333301E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.7233333333333303E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.9279999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.9899999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.34966666666667E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.8833333333333402E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="43">
+                  <c:v>5.79E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.7800000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.0200000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.2700000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.0400000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.2799999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.5900000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.2300000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.3400000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.6699999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.4000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.5199999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.5100000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.7200000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.2200000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.4699999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.078E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.11E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.11E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.1560000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.189E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.167E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.158E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.302E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.519E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.942E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5140000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.4760000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.3990000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.485E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.4489999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.524E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.4460000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.823E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.72E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.6389999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.9990000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.797E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.462E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.9939999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.9449999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>1.925E-2</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.2899999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.7536666666666699E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.8700000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.9536666666666699E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.2290000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.80333333333334E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.2473333333333299E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.1906666666666701E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.3570000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.2366666666666699E-3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.7010000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.4600000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.129E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5.31333333333334E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.3816666666666701E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.8700000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.3383333333333301E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.6066666666666704E-3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6.1690000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5.1766666666666697E-3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.0376666666666699E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.8933333333333303E-3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.7046666666666701E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6.1566666666666697E-3</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.947E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.6666666666666697E-3</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.8316666666666698E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.9066666666666703E-3</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3.0120000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5.7000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.76866666666667E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>8.1700000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.9850000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7.2300000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.8963333333333301E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6.3933333333333299E-3</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3.4503333333333303E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>7.3299999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>4.768E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>4.6666666666666697E-3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.3523333333333299E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.13766666666667E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>4.0680000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>6.9699999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>4.9153333333333299E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.277E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>4.2423333333333299E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7.1733333333333302E-3</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3.44733333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>6.8199999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>4.4386666666666699E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>6.8399999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.5056666666666701E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>6.6600000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3.9609999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>6.9766666666666701E-3</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>6.2446666666666699E-2</c:v>
-                </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.8333333333333302E-3</c:v>
+                  <c:v>2.1260000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.5443333333333301E-2</c:v>
+                  <c:v>2.691E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>7.3133333333333297E-3</c:v>
+                  <c:v>2.3820000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.0550000000000003E-2</c:v>
+                  <c:v>2.4299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.8166666666666706E-3</c:v>
+                  <c:v>2.2450000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.9643333333333303E-2</c:v>
+                  <c:v>2.4049999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.5766666666666699E-3</c:v>
+                  <c:v>2.24E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.8676666666666701E-2</c:v>
+                  <c:v>2.3199999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.6333333333333296E-3</c:v>
+                  <c:v>2.819E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.49933333333333E-2</c:v>
+                  <c:v>2.436E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.0206666666666701E-2</c:v>
+                  <c:v>2.6210000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.09133333333333E-2</c:v>
+                  <c:v>2.4559999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -476,7 +529,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Median</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -490,6 +551,20 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$101</c:f>
@@ -500,301 +575,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1333333333333301E-4</c:v>
+                  <c:v>3.98E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9933333333333297E-3</c:v>
+                  <c:v>5.5000000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.06666666666667E-4</c:v>
+                  <c:v>2.9999999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6333333333333302E-4</c:v>
+                  <c:v>3.4000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6333333333333298E-4</c:v>
+                  <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9333333333333404E-4</c:v>
+                  <c:v>5.0000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.06666666666667E-4</c:v>
+                  <c:v>4.4999999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3333333333333297E-4</c:v>
+                  <c:v>5.6999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6000000000000001E-4</c:v>
+                  <c:v>7.3999999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9999999999999999E-4</c:v>
+                  <c:v>6.8000000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.6000000000000001E-4</c:v>
+                  <c:v>6.3000000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.9999999999999999E-4</c:v>
+                  <c:v>6.2E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.4000000000000001E-4</c:v>
+                  <c:v>6.4999999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.9999999999999998E-4</c:v>
+                  <c:v>7.7999999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.4000000000000001E-4</c:v>
+                  <c:v>9.2000000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.96666666666667E-3</c:v>
+                  <c:v>8.4000000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.8666666666666702E-4</c:v>
+                  <c:v>9.3000000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.33333333333333E-3</c:v>
+                  <c:v>8.8999999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.2666666666666604E-4</c:v>
+                  <c:v>9.2000000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.98E-3</c:v>
+                  <c:v>9.3999999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0566666666666699E-3</c:v>
+                  <c:v>1.01E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.08E-3</c:v>
+                  <c:v>1.14E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.9333333333333296E-4</c:v>
+                  <c:v>1.17E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.5E-3</c:v>
+                  <c:v>1.17E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.32333333333333E-3</c:v>
+                  <c:v>1.7899999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.5900000000000001E-3</c:v>
+                  <c:v>1.57E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.2233333333333299E-3</c:v>
+                  <c:v>1.4300000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.74666666666667E-3</c:v>
+                  <c:v>1.3699999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.6266666666666699E-3</c:v>
+                  <c:v>1.17E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3466666666666701E-3</c:v>
+                  <c:v>1.42E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.30333333333333E-3</c:v>
+                  <c:v>1.3600000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.5233333333333301E-3</c:v>
+                  <c:v>1.6100000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.1066666666666699E-3</c:v>
+                  <c:v>1.7600000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.48666666666667E-3</c:v>
+                  <c:v>2.2899999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.7099999999999999E-3</c:v>
+                  <c:v>1.9400000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1333333333333299E-3</c:v>
+                  <c:v>2.2399999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.49E-3</c:v>
+                  <c:v>1.9E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.3699999999999999E-3</c:v>
+                  <c:v>1.6800000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.75E-3</c:v>
+                  <c:v>1.74E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.2700000000000001E-3</c:v>
+                  <c:v>2.16E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.1833333333333301E-3</c:v>
+                  <c:v>1.8400000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.31666666666667E-3</c:v>
+                  <c:v>2.2399999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.8400000000000001E-3</c:v>
+                  <c:v>1.99E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.66666666666667E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.0966666666666699E-3</c:v>
+                  <c:v>2.0600000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.3600000000000001E-3</c:v>
+                  <c:v>2.96E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.2566666666666708E-3</c:v>
+                  <c:v>2.5200000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.0733333333333298E-3</c:v>
+                  <c:v>2.2499999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.3999999999999998E-3</c:v>
+                  <c:v>2.3800000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.0066666666666701E-3</c:v>
+                  <c:v>2.98E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.27666666666667E-3</c:v>
+                  <c:v>3.13E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.1800000000000001E-3</c:v>
+                  <c:v>2.65E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.7633333333333399E-3</c:v>
+                  <c:v>2.8300000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.4133333333333298E-3</c:v>
+                  <c:v>2.7499999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.61666666666667E-3</c:v>
+                  <c:v>2.5400000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.5466666666666699E-3</c:v>
+                  <c:v>2.5300000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.0500000000000002E-3</c:v>
+                  <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.90666666666667E-3</c:v>
+                  <c:v>2.48E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.6600000000000001E-3</c:v>
+                  <c:v>2.9499999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.4066666666666698E-3</c:v>
+                  <c:v>3.1900000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.0666666666666698E-3</c:v>
+                  <c:v>3.1099999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.0266666666666701E-3</c:v>
+                  <c:v>2.6900000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.4266666666666699E-3</c:v>
+                  <c:v>2.5500000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.3433333333333301E-3</c:v>
+                  <c:v>2.5300000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>3.0899999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.4499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.29E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.9500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.3800000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.5300000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.4399999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.0699999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.2699999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.3899999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.2399999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.48E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.2599999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.81E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.7299999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.7200000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.47E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.0600000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.8600000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.8600000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.5400000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.13E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.63E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.28E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.1099999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.4299999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.7200000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.9199999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.8199999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>4.64E-3</c:v>
                 </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.0300000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3.9899999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.7266666666666702E-3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6.1599999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.0500000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>4.31333333333334E-3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.4399999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5.6866666666666697E-3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7.5666666666666703E-3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7.26E-3</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.8566666666666701E-3</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7.7600000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.9133333333333298E-3</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>6.5133333333333302E-3</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3.15666666666667E-3</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.158E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>6.2333333333333303E-3</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>9.7166666666666703E-3</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3.9500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.2413333333333301E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3.3333333333333301E-3</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>9.7033333333333294E-3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3.4033333333333298E-3</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.2663333333333301E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>3.9266666666666703E-3</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.37133333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.11933333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.0533333333333301E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4.0800000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.2149999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>3.46333333333333E-3</c:v>
-                </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.0013333333333299E-2</c:v>
+                  <c:v>4.4400000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.3600000000000002E-3</c:v>
+                  <c:v>4.0600000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.4286666666666699E-2</c:v>
+                  <c:v>4.4200000000000003E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -825,6 +900,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Input size array</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -889,6 +1020,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Execution Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -932,8 +1119,41 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -941,7 +1161,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1536,16 +1755,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>897674</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>67836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>522714</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>118636</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1869,16 +2088,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E47650C-E9B6-408B-8C73-747A56318308}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="W55" sqref="W55"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1889,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1897,1096 +2121,1096 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.6733333333333301E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.5999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.1333333333333301E-4</v>
+        <v>3.98E-3</v>
       </c>
       <c r="C3">
-        <v>1.108E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.2999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5.9933333333333297E-3</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="C4">
-        <v>3.9366666666666699E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.9000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3.06666666666667E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="C5">
-        <v>1.26933333333333E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.9000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.6333333333333302E-4</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="C6">
-        <v>2.9933333333333301E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.4999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.6333333333333298E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="C7">
-        <v>9.5166666666666698E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.2000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7.9333333333333404E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C8">
-        <v>3.8633333333333302E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.7E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3.06666666666667E-4</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="C9">
-        <v>1.4456666666666699E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3.2000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.3333333333333297E-4</v>
+        <v>5.6999999999999998E-4</v>
       </c>
       <c r="C10">
-        <v>4.8799999999999998E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4.4000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4.6000000000000001E-4</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="C11">
-        <v>1.55366666666667E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5.1000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6.9999999999999999E-4</v>
+        <v>6.8000000000000005E-4</v>
       </c>
       <c r="C12">
-        <v>4.6499999999999996E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5.1999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="C13">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="C13">
-        <v>1.8933333333333299E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>6.9999999999999999E-4</v>
+        <v>6.2E-4</v>
       </c>
       <c r="C14">
-        <v>5.3400000000000001E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6.8999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>5.4000000000000001E-4</v>
+        <v>6.4999999999999997E-4</v>
       </c>
       <c r="C15">
-        <v>2.0879999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6.4999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>8.9999999999999998E-4</v>
+        <v>7.7999999999999999E-4</v>
       </c>
       <c r="C16">
-        <v>5.5799999999999999E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7.9000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>5.4000000000000001E-4</v>
+        <v>9.2000000000000003E-4</v>
       </c>
       <c r="C17">
-        <v>2.2020000000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7.7999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2.96666666666667E-3</v>
+        <v>8.4000000000000003E-4</v>
       </c>
       <c r="C18">
-        <v>3.3666666666666701E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9.7999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>6.8666666666666702E-4</v>
+        <v>9.3000000000000005E-4</v>
       </c>
       <c r="C19">
-        <v>1.3566666666666701E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9.6000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.33333333333333E-3</v>
+        <v>8.8999999999999995E-4</v>
       </c>
       <c r="C20">
-        <v>1.27633333333333E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.14E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7.2666666666666604E-4</v>
+        <v>9.2000000000000003E-4</v>
       </c>
       <c r="C21">
-        <v>1.4069999999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.2199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.98E-3</v>
+        <v>9.3999999999999997E-4</v>
       </c>
       <c r="C22">
-        <v>1.2246666666666701E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.39E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1.0566666666666699E-3</v>
+        <v>1.01E-3</v>
       </c>
       <c r="C23">
-        <v>2.9173333333333301E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.6299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.08E-3</v>
+        <v>1.14E-3</v>
       </c>
       <c r="C24">
-        <v>4.6266666666666704E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.8600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7.9333333333333296E-4</v>
+        <v>1.17E-3</v>
       </c>
       <c r="C25">
-        <v>1.5173333333333301E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.7799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.5E-3</v>
+        <v>1.17E-3</v>
       </c>
       <c r="C26">
-        <v>4.7233333333333303E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.99E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.32333333333333E-3</v>
+        <v>1.7899999999999999E-3</v>
       </c>
       <c r="C27">
-        <v>1.9279999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3.49E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.5900000000000001E-3</v>
+        <v>1.57E-3</v>
       </c>
       <c r="C28">
-        <v>4.9899999999999996E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3.0699999999999998E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7.2233333333333299E-3</v>
+        <v>1.4300000000000001E-3</v>
       </c>
       <c r="C29">
-        <v>2.34966666666667E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.4599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1.74666666666667E-3</v>
+        <v>1.3699999999999999E-3</v>
       </c>
       <c r="C30">
-        <v>4.8833333333333402E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.64E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.6266666666666699E-3</v>
+        <v>1.17E-3</v>
       </c>
       <c r="C31">
-        <v>1.925E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1.3466666666666701E-3</v>
+        <v>1.42E-3</v>
       </c>
       <c r="C32">
-        <v>6.2899999999999996E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.96E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.30333333333333E-3</v>
+        <v>1.3600000000000001E-3</v>
       </c>
       <c r="C33">
-        <v>2.7536666666666699E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3.62E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1.5233333333333301E-3</v>
+        <v>1.6100000000000001E-3</v>
       </c>
       <c r="C34">
-        <v>3.8700000000000002E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3.62E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2.1066666666666699E-3</v>
+        <v>1.7600000000000001E-3</v>
       </c>
       <c r="C35">
-        <v>1.9536666666666699E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3.9100000000000003E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1.48666666666667E-3</v>
+        <v>2.2899999999999999E-3</v>
       </c>
       <c r="C36">
-        <v>1.2290000000000001E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5.11E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1.7099999999999999E-3</v>
+        <v>1.9400000000000001E-3</v>
       </c>
       <c r="C37">
-        <v>2.325E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3.6800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1.1333333333333299E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="C38">
-        <v>6.80333333333334E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3.9100000000000003E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2.49E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="C39">
-        <v>3.2473333333333299E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1.3699999999999999E-3</v>
+        <v>1.6800000000000001E-3</v>
       </c>
       <c r="C40">
-        <v>1.1906666666666701E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4.5199999999999997E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1.75E-3</v>
+        <v>1.74E-3</v>
       </c>
       <c r="C41">
-        <v>3.3570000000000003E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4.4600000000000004E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1.2700000000000001E-3</v>
+        <v>2.16E-3</v>
       </c>
       <c r="C42">
-        <v>6.2366666666666699E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4.9399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2.1833333333333301E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="C43">
-        <v>4.7010000000000003E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5.13E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1.31666666666667E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="C44">
-        <v>4.4600000000000004E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5.3400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1.8400000000000001E-3</v>
+        <v>1.99E-3</v>
       </c>
       <c r="C45">
-        <v>2.129E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5.79E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1.66666666666667E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C46">
-        <v>5.31333333333334E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>3.0966666666666699E-3</v>
+        <v>2.0600000000000002E-3</v>
       </c>
       <c r="C47">
-        <v>2.3816666666666701E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5.7800000000000004E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2.3600000000000001E-3</v>
+        <v>2.96E-3</v>
       </c>
       <c r="C48">
-        <v>5.8700000000000002E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6.0200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>8.2566666666666708E-3</v>
+        <v>2.5200000000000001E-3</v>
       </c>
       <c r="C49">
-        <v>2.3383333333333301E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6.2700000000000004E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2.0733333333333298E-3</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="C50">
-        <v>7.6066666666666704E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7.0400000000000003E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>3.3999999999999998E-3</v>
+        <v>2.3800000000000002E-3</v>
       </c>
       <c r="C51">
-        <v>6.1690000000000002E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8.2799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2.0066666666666701E-3</v>
+        <v>2.98E-3</v>
       </c>
       <c r="C52">
-        <v>5.1766666666666697E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7.5900000000000004E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>6.27666666666667E-3</v>
+        <v>3.13E-3</v>
       </c>
       <c r="C53">
-        <v>2.0376666666666699E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9.2300000000000004E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2.1800000000000001E-3</v>
+        <v>2.65E-3</v>
       </c>
       <c r="C54">
-        <v>5.8933333333333303E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8.3400000000000002E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>3.7633333333333399E-3</v>
+        <v>2.8300000000000001E-3</v>
       </c>
       <c r="C55">
-        <v>2.7046666666666701E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7.6699999999999997E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2.4133333333333298E-3</v>
+        <v>2.7499999999999998E-3</v>
       </c>
       <c r="C56">
-        <v>6.1566666666666697E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>4.61666666666667E-3</v>
+        <v>2.5400000000000002E-3</v>
       </c>
       <c r="C57">
-        <v>2.947E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8.5199999999999998E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1.5466666666666699E-3</v>
+        <v>2.5300000000000001E-3</v>
       </c>
       <c r="C58">
-        <v>5.6666666666666697E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8.5100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>3.0500000000000002E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="C59">
-        <v>2.8316666666666698E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8.7200000000000003E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1.90666666666667E-3</v>
+        <v>2.48E-3</v>
       </c>
       <c r="C60">
-        <v>5.9066666666666703E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9.2200000000000008E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>3.6600000000000001E-3</v>
+        <v>2.9499999999999999E-3</v>
       </c>
       <c r="C61">
-        <v>3.0120000000000001E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9.4699999999999993E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>2.4066666666666698E-3</v>
+        <v>3.1900000000000001E-3</v>
       </c>
       <c r="C62">
-        <v>5.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.15E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>5.0666666666666698E-3</v>
+        <v>3.1099999999999999E-3</v>
       </c>
       <c r="C63">
-        <v>2.76866666666667E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.078E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2.0266666666666701E-3</v>
+        <v>2.6900000000000001E-3</v>
       </c>
       <c r="C64">
-        <v>8.1700000000000002E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>3.4266666666666699E-3</v>
+        <v>2.5500000000000002E-3</v>
       </c>
       <c r="C65">
-        <v>2.9850000000000002E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>5.3433333333333301E-3</v>
+        <v>2.5300000000000001E-3</v>
       </c>
       <c r="C66">
-        <v>7.2300000000000003E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.1560000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>4.64E-3</v>
+        <v>3.0899999999999999E-3</v>
       </c>
       <c r="C67">
-        <v>3.8963333333333301E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.189E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>2.0300000000000001E-3</v>
+        <v>3.4499999999999999E-3</v>
       </c>
       <c r="C68">
-        <v>6.3933333333333299E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.167E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>3.9899999999999996E-3</v>
+        <v>3.29E-3</v>
       </c>
       <c r="C69">
-        <v>3.4503333333333303E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.158E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2.7266666666666702E-3</v>
+        <v>3.9500000000000004E-3</v>
       </c>
       <c r="C70">
-        <v>7.3299999999999997E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.302E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>6.1599999999999997E-3</v>
+        <v>3.3800000000000002E-3</v>
       </c>
       <c r="C71">
-        <v>4.768E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.519E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2.0500000000000002E-3</v>
+        <v>5.5300000000000002E-3</v>
       </c>
       <c r="C72">
-        <v>4.6666666666666697E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.942E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>4.31333333333334E-3</v>
+        <v>3.4399999999999999E-3</v>
       </c>
       <c r="C73">
-        <v>2.3523333333333299E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.5140000000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2.4399999999999999E-3</v>
+        <v>3.0699999999999998E-3</v>
       </c>
       <c r="C74">
-        <v>2.13766666666667E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.4760000000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>5.6866666666666697E-3</v>
+        <v>3.2699999999999999E-3</v>
       </c>
       <c r="C75">
-        <v>4.0680000000000001E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.3990000000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7.5666666666666703E-3</v>
+        <v>3.3899999999999998E-3</v>
       </c>
       <c r="C76">
-        <v>6.9699999999999996E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.485E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7.26E-3</v>
+        <v>3.2399999999999998E-3</v>
       </c>
       <c r="C77">
-        <v>4.9153333333333299E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.4489999999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2.8566666666666701E-3</v>
+        <v>3.48E-3</v>
       </c>
       <c r="C78">
-        <v>1.277E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.524E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7.7600000000000004E-3</v>
+        <v>3.2599999999999999E-3</v>
       </c>
       <c r="C79">
-        <v>4.2423333333333299E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.4460000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2.9133333333333298E-3</v>
+        <v>3.81E-3</v>
       </c>
       <c r="C80">
-        <v>7.1733333333333302E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.823E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>6.5133333333333302E-3</v>
+        <v>3.7299999999999998E-3</v>
       </c>
       <c r="C81">
-        <v>3.44733333333333E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.72E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>3.15666666666667E-3</v>
+        <v>3.7200000000000002E-3</v>
       </c>
       <c r="C82">
-        <v>6.8199999999999997E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1.158E-2</v>
+        <v>3.47E-3</v>
       </c>
       <c r="C83">
-        <v>4.4386666666666699E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.6389999999999998E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>6.2333333333333303E-3</v>
+        <v>4.0600000000000002E-3</v>
       </c>
       <c r="C84">
-        <v>6.8399999999999997E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.9990000000000001E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>9.7166666666666703E-3</v>
+        <v>3.8600000000000001E-3</v>
       </c>
       <c r="C85">
-        <v>3.5056666666666701E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.797E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>3.9500000000000004E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="C86">
-        <v>6.6600000000000001E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.462E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1.2413333333333301E-2</v>
+        <v>3.8600000000000001E-3</v>
       </c>
       <c r="C87">
-        <v>3.9609999999999999E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.9939999999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>3.3333333333333301E-3</v>
+        <v>3.5400000000000002E-3</v>
       </c>
       <c r="C88">
-        <v>6.9766666666666701E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.9449999999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>9.7033333333333294E-3</v>
+        <v>4.13E-3</v>
       </c>
       <c r="C89">
-        <v>6.2446666666666699E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.925E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>3.4033333333333298E-3</v>
+        <v>3.63E-3</v>
       </c>
       <c r="C90">
-        <v>8.8333333333333302E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.1260000000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1.2663333333333301E-2</v>
+        <v>5.28E-3</v>
       </c>
       <c r="C91">
-        <v>4.5443333333333301E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.691E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>3.9266666666666703E-3</v>
+        <v>4.7499999999999999E-3</v>
       </c>
       <c r="C92">
-        <v>7.3133333333333297E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.3820000000000001E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1.37133333333333E-2</v>
+        <v>4.1099999999999999E-3</v>
       </c>
       <c r="C93">
-        <v>4.0550000000000003E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.4299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1.11933333333333E-2</v>
+        <v>4.4299999999999999E-3</v>
       </c>
       <c r="C94">
-        <v>8.8166666666666706E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.2450000000000001E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1.0533333333333301E-2</v>
+        <v>3.7200000000000002E-3</v>
       </c>
       <c r="C95">
-        <v>4.9643333333333303E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.4049999999999998E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>4.0800000000000003E-3</v>
+        <v>3.9199999999999999E-3</v>
       </c>
       <c r="C96">
-        <v>5.5766666666666699E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1.2149999999999999E-2</v>
+        <v>4.8199999999999996E-3</v>
       </c>
       <c r="C97">
-        <v>2.8676666666666701E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>3.46333333333333E-3</v>
+        <v>4.64E-3</v>
       </c>
       <c r="C98">
-        <v>5.6333333333333296E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.819E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1.0013333333333299E-2</v>
+        <v>4.4400000000000004E-3</v>
       </c>
       <c r="C99">
-        <v>3.49933333333333E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.436E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>5.3600000000000002E-3</v>
+        <v>4.0600000000000002E-3</v>
       </c>
       <c r="C100">
-        <v>1.0206666666666701E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.6210000000000001E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2.4286666666666699E-2</v>
+        <v>4.4200000000000003E-3</v>
       </c>
       <c r="C101">
-        <v>3.09133333333333E-2</v>
+        <v>2.4559999999999998E-2</v>
       </c>
     </row>
   </sheetData>
